--- a/Data/Result/Result_wherewhenhownofoa_80_uniqueQuestions.xlsx
+++ b/Data/Result/Result_wherewhenhownofoa_80_uniqueQuestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A7582-7971-4A45-AD44-B7699866774C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2DA7F-AE10-4021-A633-C0B630E30FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22104" yWindow="1080" windowWidth="22248" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9492" yWindow="2160" windowWidth="17436" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem_type" sheetId="1" r:id="rId1"/>
@@ -144,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -184,6 +190,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3064,7 +3071,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4756,8 +4763,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4975,7 +4982,7 @@
       <c r="F6" s="3">
         <v>0.77940430000000005</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="3">
@@ -5013,7 +5020,7 @@
       <c r="F7" s="3">
         <v>0.69666410000000001</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="3">
